--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,115 +40,115 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>guilty</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>serious</t>
+    <t>shocking</t>
   </si>
   <si>
     <t>fake</t>
@@ -163,154 +163,157 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>top</t>
+    <t>wow</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>digital</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>change</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>irony</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>opening</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>facebook</t>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>tech</t>
   </si>
   <si>
     <t>want</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>…</t>
   </si>
   <si>
-    <t>dilemma</t>
+    <t>know</t>
   </si>
   <si>
     <t>’</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>must</t>
+    <t>amp</t>
   </si>
   <si>
     <t>watched</t>
@@ -682,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -796,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -843,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -861,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.92</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9615384615384616</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -961,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -993,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1043,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1061,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K9">
-        <v>0.7719298245614035</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1093,13 +1096,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1111,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K10">
-        <v>0.7222222222222222</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1135,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1143,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1161,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K11">
-        <v>0.7066666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1185,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1193,37 +1196,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C12">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>9</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K12">
-        <v>0.6896551724137931</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1235,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1243,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8181818181818182</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1261,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K13">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1285,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1320,13 @@
         <v>58</v>
       </c>
       <c r="K14">
-        <v>0.6296296296296297</v>
+        <v>0.65</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1335,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,34 +1349,34 @@
         <v>0.8</v>
       </c>
       <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>8</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K15">
-        <v>0.6166666666666667</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1385,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1393,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,13 +1420,13 @@
         <v>60</v>
       </c>
       <c r="K16">
-        <v>0.6153846153846154</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1435,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1443,13 +1446,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7894736842105263</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1461,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K17">
-        <v>0.5151515151515151</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1493,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7692307692307693</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1511,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>62</v>
@@ -1520,10 +1523,10 @@
         <v>0.5</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1535,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1543,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1561,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1593,13 +1596,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1611,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K20">
-        <v>0.4444444444444444</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1643,13 +1646,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7318840579710145</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1661,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K21">
-        <v>0.3928571428571428</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1685,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1693,13 +1696,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.725</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1711,19 +1714,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K22">
-        <v>0.3461538461538461</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1735,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1743,13 +1746,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6956521739130435</v>
+        <v>0.65</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,13 +1770,13 @@
         <v>67</v>
       </c>
       <c r="K23">
-        <v>0.3442622950819672</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1785,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1793,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6808510638297872</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1811,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K24">
-        <v>0.3309024612579763</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L24">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>734</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1843,13 +1846,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1861,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K25">
-        <v>0.3076923076923077</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1885,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1893,13 +1896,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6666666666666666</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1911,19 +1914,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K26">
-        <v>0.3043478260869565</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1935,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1943,13 +1946,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1961,19 +1964,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K27">
-        <v>0.3043478260869565</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1985,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1993,13 +1996,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6285714285714286</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2011,19 +2014,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K28">
-        <v>0.2926829268292683</v>
+        <v>0.3069216757741348</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2035,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>761</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2043,13 +2046,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2061,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K29">
-        <v>0.2602739726027397</v>
+        <v>0.25</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2085,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2093,13 +2096,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2111,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K30">
-        <v>0.2592592592592592</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2135,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2143,13 +2146,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.55</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2161,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K31">
-        <v>0.2535211267605634</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2185,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2193,13 +2196,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5384615384615384</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2211,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K32">
-        <v>0.2421052631578947</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2235,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2243,13 +2246,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5384615384615384</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2261,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K33">
-        <v>0.1864406779661017</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2285,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2293,13 +2296,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2311,19 +2314,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K34">
-        <v>0.1851851851851852</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2335,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2343,13 +2346,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2361,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K35">
-        <v>0.1764705882352941</v>
+        <v>0.18</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2385,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2393,37 +2396,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4642857142857143</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>13</v>
-      </c>
-      <c r="D36">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K36">
-        <v>0.1714285714285714</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2435,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2443,13 +2446,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4210526315789473</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2461,19 +2464,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K37">
-        <v>0.16</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2485,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2493,13 +2496,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3214285714285715</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2511,19 +2514,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K38">
-        <v>0.16</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2535,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2543,7 +2546,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -2561,19 +2564,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K39">
-        <v>0.1463414634146341</v>
+        <v>0.14</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2585,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2593,13 +2596,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2564102564102564</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2611,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K40">
-        <v>0.1346153846153846</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L40">
         <v>7</v>
@@ -2635,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2643,37 +2646,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.06206896551724138</v>
+        <v>0.05723905723905724</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="F41">
-        <v>0.6699999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K41">
-        <v>0.112962962962963</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2685,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2693,13 +2696,13 @@
         <v>86</v>
       </c>
       <c r="K42">
-        <v>0.1021897810218978</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2711,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>123</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2719,13 +2722,13 @@
         <v>87</v>
       </c>
       <c r="K43">
-        <v>0.09789156626506024</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L43">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2737,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>599</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2745,13 +2748,13 @@
         <v>88</v>
       </c>
       <c r="K44">
-        <v>0.09540636042402827</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2763,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2771,13 +2774,13 @@
         <v>89</v>
       </c>
       <c r="K45">
-        <v>0.08860759493670886</v>
+        <v>0.1024734982332156</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2789,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>72</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2797,25 +2800,25 @@
         <v>90</v>
       </c>
       <c r="K46">
-        <v>0.07894736842105263</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="M46">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>70</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2823,13 +2826,13 @@
         <v>91</v>
       </c>
       <c r="K47">
-        <v>0.06744868035190615</v>
+        <v>0.08504398826979472</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2841,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2849,25 +2852,25 @@
         <v>92</v>
       </c>
       <c r="K48">
-        <v>0.06542056074766354</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2875,13 +2878,13 @@
         <v>93</v>
       </c>
       <c r="K49">
-        <v>0.06048387096774194</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L49">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="M49">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2893,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>1631</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2901,25 +2904,25 @@
         <v>94</v>
       </c>
       <c r="K50">
-        <v>0.06031746031746032</v>
+        <v>0.07643312101910828</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2927,13 +2930,13 @@
         <v>95</v>
       </c>
       <c r="K51">
-        <v>0.05505761843790013</v>
+        <v>0.0762987012987013</v>
       </c>
       <c r="L51">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2945,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>738</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2953,13 +2956,13 @@
         <v>96</v>
       </c>
       <c r="K52">
-        <v>0.04545454545454546</v>
+        <v>0.06105990783410138</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2971,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>588</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2979,13 +2982,13 @@
         <v>97</v>
       </c>
       <c r="K53">
-        <v>0.04545454545454546</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2997,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -3005,25 +3008,25 @@
         <v>98</v>
       </c>
       <c r="K54">
-        <v>0.03726708074534162</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="L54">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>155</v>
+        <v>740</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -3031,51 +3034,51 @@
         <v>99</v>
       </c>
       <c r="K55">
-        <v>0.03484320557491289</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N55">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>277</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="K56">
-        <v>0.03202846975088968</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="L56">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M56">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N56">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.6699999999999999</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
